--- a/annotorious_github/assets/Tappytoon/Mturk/Novel.xlsx
+++ b/annotorious_github/assets/Tappytoon/Mturk/Novel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YJ\github\AnnotationC_Mturk\annotorious_github\assets\Tappytoon\Mturk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D03C4C-CDE0-437E-A850-AFAF13EBE3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B785C-B203-426B-B244-7FB1B47D347F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37740" yWindow="5670" windowWidth="21600" windowHeight="11385" xr2:uid="{B09E82DA-9510-47E1-B78B-92CBAD02A9BB}"/>
+    <workbookView xWindow="34515" yWindow="6105" windowWidth="21600" windowHeight="11385" xr2:uid="{B09E82DA-9510-47E1-B78B-92CBAD02A9BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,62 +38,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>The ground suddenly disappeared.
-When Jung Dawoon came to, he knew it was already hopeless.
-"Damn it."
-[Oopsie, be careful! Historic sites like these always have just as many traps as treasures! It's one of the rules of the dungeon, you know!]
+    <t>novel_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Oopsie, be careful! Historic sites like these always have just as many traps as treasures! It's one of the rules of the dungeon, you know!] &lt;br&gt;
 The annoyingly cheery voice echoed from a distance.
-That damned assistant only offered advice after someone died.
+That damned assistant only offered advice after someone died.&lt;br&gt;
 Jung Dawoon was at the bottom of a deep pit.
 The ground was covered in sharp, metal spikes
-One of the spikes had pierced his stomach. Jung Dawoon was dying.
-“Damn it."
+One of the spikes had pierced his stomach. Jung Dawoon was dying.&lt;br&gt;
+“Damn it."&lt;br&gt;
 With the last of his strength, he pulled the spike from his body.
 He then crawled across the floor and leaned against the wall.
 Weakly, he looked up and saw a circle of light at the end of the deep darkness.
-It was the opening of the trap he'd fallen into.
+It was the opening of the trap he'd fallen into.&lt;br&gt;
 To think some treasure blinded me when I'd gotten so far...
 His regret was palpable.
-He had no one to blame; it had been his own mistake that had doomed him.
+He had no one to blame; it had been his own mistake that had doomed him.&lt;br&gt;
 So this is how I die?
 His vision began to fade.
 He must have lost too much blood.
-His body was getting progressively colder.
+His body was getting progressively colder.&lt;br&gt;
 There was a ringing in his ears, and his head was blank.
 His senses were growing dull, and everything felt far away.
 He'd struggled so much to survive, but now he was at death's door.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Aria! Aria!"
-Crash!
-A glass fell from Aria's hands to the ground, shattering into dozens of pieces. A maid immediately rushed towards her and started to sweep up the mess.
-Aria was momentarily stunned. Coming to her senses, she looked towards the voice calling her. It was Mielle, her delicate force looking worried as her eyes filled with tears across the marble table.
-Mielle was as delicately beautiful as ever. Even at Aria's execution she had looked fragile, almost ethereal.
-How does she look so young...?!
-As far as Aria could remember, Mielle was twenty- three years old. But the Mielle sitting in front of her looked barely a day past ten.
-Next to her was Cain, who was glaring at Aria with a disapproving frown. He too looked young, perhaps sixteen or seventeen.
-Unable to understand what she was seeing, Aria just blinked. Then came a cold voice from right beside her.
-"Are you all right, Aria? Why weren't you answering me?"</t>
+    <t>"Aria! Aria!"&lt;br&gt;
+Crash!&lt;br&gt;
+A glass fell from Aria's hands to the ground, shattering into dozens of pieces. A maid immediately rushed towards her and started to sweep up the mess.&lt;br&gt;
+Aria was momentarily stunned. Coming to her senses, she looked towards the voice calling her. It was Mielle, her delicate force looking worried as her eyes filled with tears across the marble table.&lt;br&gt;
+Irritated gazes fell on Aria, who was blankly staring at her hand. Everyone knew that soon the vulgar girl would scream.&lt;br&gt;
+People braced themselves for this eventuality. No gestures of pity were offered to Aria. She had already lost their trust.
+Aria closed her eyes. After briefly considering what to do next, she opened her eyes and let a calm expression fall over her face.&lt;br&gt;
+“Pass me a handkerchief, Jessie. I seem to have hurt my leg, so I will need you to tend to the wound. My apologies to everyone, but I will have to leave the meal early.”&lt;br&gt;
+Against everyone's expectations, Aria had chosen to react calmly instead of screaming.
+She took the handkerchief from her maid and wiped her hand, then left her seat after apologizing for creating a disturbance.&lt;br&gt;
+Everyone seated around the table froze, taken aback by Aria's unexpected reaction.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When I saw the snowwhite school uniform that hung from the closet door, I found myself at a loss, however.
-Huh? Brows deeply furrowed, I stared at the uniform for a while. I rubbed my eyes. Nothing changed, so this time I tried banging my head against the wall. When I turned towards the closet again, I saw the same uniform hanging there.
-What is this? I thought, holding the uniform. It resembled a patient's gown from some psychiatric ward the more I looked at it. The jacket was pure white, and so was the dress. The vest was a light beige, but that wasn't much of a consolation. If I put this on and buttoned my jacket, I'd be white from head to toe.
-One thing I found a relief was that this was not my school's uniform. My school's uniform came in an ordinary navy color.
-I stood there staring vacantly for a while before calling out to my mom.
-"Mom, where's my uniform?"
-"Huh?"
-My mom, having just finished doing the dishes in the kitchen, appeared at my door. I shook the white uniform at her.
-"Mom, this isn't my school's uniform! Where's mine?"
-"What are you saying, child? You went to get that fitted last week. That is your uniform!"
-"Huh?"
-"What?"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>novel_txt</t>
+    <t>Up to that point, my morning was no different from usual. / stood peacefully in front of the closet. 
+When I saw the snowwhite school uniform that hung from the closet door, I found myself at a loss, however. &lt;br&gt;
+Huh? Brows deeply furrowed, I stared at the uniform for a while. I rubbed my eyes. Nothing changed, so this time I tried banging my head against the wall. When I turned towards the closet again, I saw the same uniform hanging there.&lt;br&gt;
+What is this? I thought, holding the uniform. It resembled a patient's gown from some psychiatric ward the more I looked at it. The jacket was pure white, and so was the dress. The vest was a light beige, but that wasn't much of a consolation. If I put this on and buttoned my jacket, I'd be white from head to toe.&lt;br&gt;
+One thing I found a relief was that this was not my school's uniform. My school's uniform came in an ordinary navy color.&lt;br&gt;
+I stood there staring vacantly for a while before calling out to my mom.&lt;br&gt;
+"Mom, where's my uniform?"&lt;br&gt;
+"Huh?"&lt;br&gt;
+My mom, having just finished doing the dishes in the kitchen, appeared at my door. I shook the white uniform at her.&lt;br&gt;
+"Mom, this isn't my school's uniform! Where's mine?"&lt;br&gt;
+"What are you saying, child? You went to get that fitted last week. That is your uniform!"&lt;br&gt;
+"Huh?"&lt;br&gt;
+"What?"&lt;br&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,30 +462,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F019A40-1E78-4A0B-85D3-3BBB96AA32C9}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
